--- a/documentos/formatos.xlsx
+++ b/documentos/formatos.xlsx
@@ -612,103 +612,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2829,8 +2829,8 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
@@ -2855,52 +2855,52 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="23"/>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="23"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="23"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="23"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11">
@@ -2917,84 +2917,84 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="23"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="23"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="45" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="43" t="s">
+      <c r="H19" s="75"/>
+      <c r="I19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="23"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="23"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="23"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="23"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:11" ht="23.25" customHeight="1">
@@ -3025,80 +3025,80 @@
     </row>
     <row r="26" spans="2:11" ht="15.75">
       <c r="B26" s="21"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="47" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" ht="24.75" customHeight="1">
       <c r="B27" s="21"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="62"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="23.25" customHeight="1">
       <c r="B28" s="21"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="2:11" ht="22.5" customHeight="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="2:11" ht="22.5" customHeight="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:11" ht="25.5" customHeight="1">
       <c r="B31" s="21"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="62"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="22"/>
     </row>
     <row r="32" spans="2:11" ht="9" customHeight="1">
@@ -3116,8 +3116,8 @@
     <row r="33" spans="2:11" ht="9.75" customHeight="1">
       <c r="B33" s="21"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3127,112 +3127,112 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="21"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="26"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="26"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="71"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="26"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="26"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="26"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="71"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="26"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="71"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="26"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="71"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="26"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="74"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1">
@@ -3248,21 +3248,49 @@
       <c r="K43" s="30"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C13:J16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I22:J22"/>
@@ -3279,38 +3307,10 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C13:J16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3319,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3438,7 +3438,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:16" ht="36" customHeight="1">
+    <row r="9" spans="2:16" ht="27.75" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -3471,8 +3471,8 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
@@ -3739,7 +3739,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="2:11" ht="23.25" customHeight="1">
+    <row r="36" spans="2:11" ht="13.5" customHeight="1">
       <c r="B36" s="26"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3751,7 +3751,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+    <row r="37" spans="2:11" ht="11.25" customHeight="1">
       <c r="B37" s="26"/>
       <c r="C37" s="80" t="s">
         <v>28</v>
@@ -3793,7 +3793,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+    <row r="40" spans="2:11" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -3806,18 +3806,18 @@
       <c r="K40" s="30"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3832,8 +3832,8 @@
     <mergeCell ref="C37:D37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3842,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3961,7 +3961,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:16" ht="36" customHeight="1">
+    <row r="9" spans="2:16" ht="28.5" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -3994,8 +3994,8 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
@@ -4253,7 +4253,7 @@
       <c r="J34" s="35"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="2:11" ht="23.25" customHeight="1">
+    <row r="35" spans="2:11" ht="12" customHeight="1">
       <c r="B35" s="26"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -4307,7 +4307,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+    <row r="39" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -4320,18 +4320,18 @@
       <c r="K39" s="30"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4345,8 +4345,8 @@
     <mergeCell ref="C27:J27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:J31"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4507,8 +4507,8 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
@@ -4761,7 +4761,7 @@
       <c r="J34" s="35"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="2:11" ht="23.25" customHeight="1">
+    <row r="35" spans="2:11" ht="18.75" customHeight="1">
       <c r="B35" s="26"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -4815,7 +4815,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="2:11" ht="41.25" customHeight="1" thickBot="1">
+    <row r="39" spans="2:11" ht="27" customHeight="1" thickBot="1">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -4828,18 +4828,18 @@
       <c r="K39" s="30"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4853,8 +4853,8 @@
     <mergeCell ref="C27:J27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5015,8 +5015,8 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
@@ -5320,18 +5320,18 @@
       <c r="K38" s="30"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="65"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5345,8 +5345,8 @@
     <mergeCell ref="C30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>